--- a/LabList.xlsx
+++ b/LabList.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D79CA82-1805-45F5-BAEF-924DFBBF84C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10699A5E-5740-452D-AC5E-12899F1D9370}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>s.pausina@uq.edu.au</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>r.dealbribeiro@gmail.com</t>
+  </si>
+  <si>
+    <t>Here is an extra person</t>
   </si>
 </sst>
 </file>
@@ -426,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,6 +545,11 @@
         <v>9</v>
       </c>
     </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{9268286E-B238-4AAF-9903-27E4238F67DB}"/>

--- a/LabList.xlsx
+++ b/LabList.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10699A5E-5740-452D-AC5E-12899F1D9370}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181681D2-03D8-4A5D-9F97-97B115608DE3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>s.pausina@uq.edu.au</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>Here is an extra person</t>
+  </si>
+  <si>
+    <t>Here is another extra person</t>
   </si>
 </sst>
 </file>
@@ -429,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,6 +553,11 @@
         <v>26</v>
       </c>
     </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{9268286E-B238-4AAF-9903-27E4238F67DB}"/>
